--- a/medicine/Handicap/Atrésie_tricuspide/Atrésie_tricuspide.xlsx
+++ b/medicine/Handicap/Atrésie_tricuspide/Atrésie_tricuspide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Atr%C3%A9sie_tricuspide</t>
+          <t>Atrésie_tricuspide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’atrésie tricuspide est une cardiopathie congénitale cyanogène de la valve tricuspide, relativement rare. Elle compte pour approximativement 1 % des cas de maladie cardiaque congénitale, soit environ ~0,1 sur 1000 individus[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’atrésie tricuspide est une cardiopathie congénitale cyanogène de la valve tricuspide, relativement rare. Elle compte pour approximativement 1 % des cas de maladie cardiaque congénitale, soit environ ~0,1 sur 1000 individus.
 Contrairement au cœur normal, le sang désoxygéné ne peut passer de l’oreillette droite vers le ventricule droit à l’aide de la valve tricuspide. Le sang est donc poussé de l’oreillette droite à l’oreillette gauche, se mélangeant avec le sang oxygéné qui revient des poumons.
-Il n’est pas rare que cette malformation s’accompagne par d’autres anomalies cardiaques[2].
+Il n’est pas rare que cette malformation s’accompagne par d’autres anomalies cardiaques.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Atr%C3%A9sie_tricuspide</t>
+          <t>Atrésie_tricuspide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette malformation est associée à un haut taux de mortalité si aucune intervention n’est effectuée[1]. Cependant, des chirurgies telles que l’anastomose de Blalock-Taussig et l’anastomose cavo-pulmonaire bidirectionnelle (intervention Glenn) peuvent être réalisées en bas âge en attendant de pouvoir procéder à une intervention de Fontan[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette malformation est associée à un haut taux de mortalité si aucune intervention n’est effectuée. Cependant, des chirurgies telles que l’anastomose de Blalock-Taussig et l’anastomose cavo-pulmonaire bidirectionnelle (intervention Glenn) peuvent être réalisées en bas âge en attendant de pouvoir procéder à une intervention de Fontan.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Atr%C3%A9sie_tricuspide</t>
+          <t>Atrésie_tricuspide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Lecture supplémentaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cœur d’enfant, publié en 2020 par l’association en cœur, association québécoise pour les enfants malades du cœur, propose une vulgarisation de plusieurs cardiopathies congénitales.
 La fondation Cœur+AVC offre un guide des cardiopathies congénitales sur son site.</t>
